--- a/data_output/turnover_fit_lm.xlsx
+++ b/data_output/turnover_fit_lm.xlsx
@@ -1,84 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/active_repos/tristan_d2o/data_output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D5BE7-F79F-7C44-A8D6-B0FE016E698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="linear_model" sheetId="1" r:id="rId1"/>
-    <sheet name="summary_statistics" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>estimate</t>
-  </si>
-  <si>
-    <t>std.error</t>
-  </si>
-  <si>
-    <t>statistic</t>
-  </si>
-  <si>
-    <t>p.value</t>
-  </si>
-  <si>
-    <t>(Intercept)</t>
-  </si>
-  <si>
-    <t>slope</t>
-  </si>
-  <si>
-    <t>r.squared</t>
-  </si>
-  <si>
-    <t>adj.r.squared</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>logLik</t>
-  </si>
-  <si>
-    <t>AIC</t>
-  </si>
-  <si>
-    <t>BIC</t>
-  </si>
-  <si>
-    <t>deviance</t>
-  </si>
-  <si>
-    <t>df.residual</t>
-  </si>
-  <si>
-    <t>nobs</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,14 +63,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -180,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,158 +350,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>estimate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std.error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
       </c>
       <c r="B2">
-        <v>2.0783187893240601E-2</v>
+        <v>0.0207831878932406</v>
       </c>
       <c r="C2">
-        <v>1.951149337949674E-3</v>
+        <v>0.001951149337949674</v>
       </c>
       <c r="D2">
-        <v>10.651766878633801</v>
+        <v>10.6517668786338</v>
       </c>
       <c r="E2">
-        <v>1.9725516909946749E-22</v>
+        <v>1.972551690994675e-22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>compound_ug_per_g_soil</t>
+        </is>
       </c>
       <c r="B3">
-        <v>-2.464279283822944E-4</v>
+        <v>-0.0002464279283822944</v>
       </c>
       <c r="C3">
-        <v>1.017587705702144E-4</v>
+        <v>0.0001017587705702144</v>
       </c>
       <c r="D3">
-        <v>-2.4216873592459249</v>
+        <v>-2.421687359245925</v>
       </c>
       <c r="E3">
-        <v>1.609099552164122E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FE11AC-57CD-214E-9CA2-331976877368}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2.0732782733651201E-2</v>
-      </c>
-      <c r="B2">
-        <v>1.7197522021498272E-2</v>
-      </c>
-      <c r="C2">
-        <v>2.562231966522183E-2</v>
-      </c>
-      <c r="D2">
-        <v>5.8645696659315014</v>
-      </c>
-      <c r="E2">
-        <v>1.609099552164122E-2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>627.45706396034257</v>
-      </c>
-      <c r="H2">
-        <v>-1248.9141279206849</v>
-      </c>
-      <c r="I2">
-        <v>-1238.0204925752209</v>
-      </c>
-      <c r="J2">
-        <v>0.18185140441242739</v>
-      </c>
-      <c r="K2">
-        <v>277</v>
-      </c>
-      <c r="L2">
-        <v>279</v>
+        <v>0.01609099552164122</v>
       </c>
     </row>
   </sheetData>
